--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.06554161049</v>
+        <v>0.6316998856155001</v>
       </c>
       <c r="R2">
-        <v>0.26216644196</v>
+        <v>2.526799542462</v>
       </c>
       <c r="S2">
-        <v>0.002045716573439985</v>
+        <v>0.02379887359608409</v>
       </c>
       <c r="T2">
-        <v>0.001137755338321683</v>
+        <v>0.01641534491255942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H3">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I3">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J3">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>0.04330768927549999</v>
+        <v>0.2441006755395</v>
       </c>
       <c r="R3">
-        <v>0.173230757102</v>
+        <v>0.9764027021580001</v>
       </c>
       <c r="S3">
-        <v>0.001351740627761914</v>
+        <v>0.009196330811779323</v>
       </c>
       <c r="T3">
-        <v>0.0007517904167322026</v>
+        <v>0.006343196941480226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.687091</v>
+        <v>101.337382</v>
       </c>
       <c r="H4">
-        <v>1.374182</v>
+        <v>304.012146</v>
       </c>
       <c r="I4">
-        <v>0.006109245136875069</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J4">
-        <v>0.004151846828623644</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>0.08688151179833332</v>
+        <v>16.529596396239</v>
       </c>
       <c r="R4">
-        <v>0.52128907079</v>
+        <v>99.177578377434</v>
       </c>
       <c r="S4">
-        <v>0.00271178793567317</v>
+        <v>0.6227415647623264</v>
       </c>
       <c r="T4">
-        <v>0.002262301073569759</v>
+        <v>0.6443068115611936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>304.012146</v>
       </c>
       <c r="I5">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J5">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>9.666572868980001</v>
+        <v>6.387345856151001</v>
       </c>
       <c r="R5">
-        <v>57.99943721388001</v>
+        <v>38.324075136906</v>
       </c>
       <c r="S5">
-        <v>0.3017177664478486</v>
+        <v>0.2406390124590507</v>
       </c>
       <c r="T5">
-        <v>0.2517071552575502</v>
+        <v>0.2489722280122725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.337382</v>
+        <v>2.422325</v>
       </c>
       <c r="H6">
-        <v>304.012146</v>
+        <v>7.266975</v>
       </c>
       <c r="I6">
-        <v>0.9010377201377272</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J6">
-        <v>0.9185187000216628</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N6">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O6">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P6">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q6">
-        <v>6.387345856150999</v>
+        <v>0.3951163312125001</v>
       </c>
       <c r="R6">
-        <v>38.324075136906</v>
+        <v>2.370697987275</v>
       </c>
       <c r="S6">
-        <v>0.1993649405397958</v>
+        <v>0.0148857453300195</v>
       </c>
       <c r="T6">
-        <v>0.1663196126371844</v>
+        <v>0.01540123167297699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.337382</v>
+        <v>2.422325</v>
       </c>
       <c r="H7">
-        <v>304.012146</v>
+        <v>7.266975</v>
       </c>
       <c r="I7">
-        <v>0.9010377201377272</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J7">
-        <v>0.9185187000216628</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N7">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O7">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P7">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q7">
-        <v>12.81394305826333</v>
+        <v>0.1526803559125</v>
       </c>
       <c r="R7">
-        <v>115.32548752437</v>
+        <v>0.9160821354750001</v>
       </c>
       <c r="S7">
-        <v>0.3999550131500826</v>
+        <v>0.005752130994018278</v>
       </c>
       <c r="T7">
-        <v>0.5004919321269282</v>
+        <v>0.005951324578523529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.502495333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H8">
-        <v>4.507486</v>
+        <v>15.82565</v>
       </c>
       <c r="I8">
-        <v>0.01335938370367848</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J8">
-        <v>0.0136185683222204</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +933,33 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N8">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O8">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P8">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q8">
-        <v>0.1433230298466667</v>
+        <v>1.2906964934625</v>
       </c>
       <c r="R8">
-        <v>0.85993817908</v>
+        <v>5.16278597385</v>
       </c>
       <c r="S8">
-        <v>0.004473468004843949</v>
+        <v>0.04862613307091804</v>
       </c>
       <c r="T8">
-        <v>0.003731977466529359</v>
+        <v>0.03354002208972073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.502495333333333</v>
+        <v>7.912825</v>
       </c>
       <c r="H9">
-        <v>4.507486</v>
+        <v>15.82565</v>
       </c>
       <c r="I9">
-        <v>0.01335938370367848</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J9">
-        <v>0.0136185683222204</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N9">
         <v>0.126061</v>
       </c>
       <c r="O9">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P9">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q9">
-        <v>0.09470303210766665</v>
+        <v>0.4987493161625</v>
       </c>
       <c r="R9">
-        <v>0.5682181926459999</v>
+        <v>1.99499726465</v>
       </c>
       <c r="S9">
-        <v>0.002955917025676869</v>
+        <v>0.0187900492017969</v>
       </c>
       <c r="T9">
-        <v>0.002465965045645023</v>
+        <v>0.01296049316477776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.502495333333333</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H10">
-        <v>4.507486</v>
+        <v>1.513781</v>
       </c>
       <c r="I10">
-        <v>0.01335938370367848</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J10">
-        <v>0.0136185683222204</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N10">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O10">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P10">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q10">
-        <v>0.1899880307411111</v>
+        <v>0.08230654364149999</v>
       </c>
       <c r="R10">
-        <v>1.70989227667</v>
+        <v>0.493839261849</v>
       </c>
       <c r="S10">
-        <v>0.005929998673157661</v>
+        <v>0.003100844361157462</v>
       </c>
       <c r="T10">
-        <v>0.00742062581004602</v>
+        <v>0.003208225139504509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.734249999999999</v>
+        <v>0.5045936666666666</v>
       </c>
       <c r="H11">
-        <v>11.4685</v>
+        <v>1.513781</v>
       </c>
       <c r="I11">
-        <v>0.0509858794921282</v>
+        <v>0.004299068740387607</v>
       </c>
       <c r="J11">
-        <v>0.03465003569692389</v>
+        <v>0.004447943464089625</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N11">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O11">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P11">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q11">
-        <v>0.5469901075</v>
+        <v>0.03180479110683333</v>
       </c>
       <c r="R11">
-        <v>2.18796043</v>
+        <v>0.190828746641</v>
       </c>
       <c r="S11">
-        <v>0.0170729208521844</v>
+        <v>0.001198224379230145</v>
       </c>
       <c r="T11">
-        <v>0.009495355853549397</v>
+        <v>0.001239718324585116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.734249999999999</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H12">
-        <v>11.4685</v>
+        <v>3.968758</v>
       </c>
       <c r="I12">
-        <v>0.0509858794921282</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J12">
-        <v>0.03465003569692389</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N12">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O12">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P12">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q12">
-        <v>0.3614326446249999</v>
+        <v>0.215787325597</v>
       </c>
       <c r="R12">
-        <v>1.4457305785</v>
+        <v>1.294723953582</v>
       </c>
       <c r="S12">
-        <v>0.01128121121473539</v>
+        <v>0.008129644159292902</v>
       </c>
       <c r="T12">
-        <v>0.006274211417623914</v>
+        <v>0.008411169903843182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.734249999999999</v>
+        <v>1.322919333333333</v>
       </c>
       <c r="H13">
-        <v>11.4685</v>
+        <v>3.968758</v>
       </c>
       <c r="I13">
-        <v>0.0509858794921282</v>
+        <v>0.01127109103361929</v>
       </c>
       <c r="J13">
-        <v>0.03465003569692389</v>
+        <v>0.01166140360240577</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N13">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O13">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P13">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q13">
-        <v>0.7250863554166666</v>
+        <v>0.08338426703966667</v>
       </c>
       <c r="R13">
-        <v>4.3505181325</v>
+        <v>0.500305602238</v>
       </c>
       <c r="S13">
-        <v>0.02263174742520841</v>
+        <v>0.003141446874326386</v>
       </c>
       <c r="T13">
-        <v>0.01888046842575058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>1.182641333333333</v>
-      </c>
-      <c r="H14">
-        <v>3.547924</v>
-      </c>
-      <c r="I14">
-        <v>0.01051541326306721</v>
-      </c>
-      <c r="J14">
-        <v>0.01071942217813777</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.09539</v>
-      </c>
-      <c r="N14">
-        <v>0.19078</v>
-      </c>
-      <c r="O14">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P14">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q14">
-        <v>0.1128121567866667</v>
-      </c>
-      <c r="R14">
-        <v>0.67687294072</v>
-      </c>
-      <c r="S14">
-        <v>0.003521147818899042</v>
-      </c>
-      <c r="T14">
-        <v>0.002937507164960404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>1.182641333333333</v>
-      </c>
-      <c r="H15">
-        <v>3.547924</v>
-      </c>
-      <c r="I15">
-        <v>0.01051541326306721</v>
-      </c>
-      <c r="J15">
-        <v>0.01071942217813777</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N15">
-        <v>0.126061</v>
-      </c>
-      <c r="O15">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P15">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q15">
-        <v>0.07454247456066666</v>
-      </c>
-      <c r="R15">
-        <v>0.447254847364</v>
-      </c>
-      <c r="S15">
-        <v>0.002326655913608513</v>
-      </c>
-      <c r="T15">
-        <v>0.001941005822004788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>1.182641333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.547924</v>
-      </c>
-      <c r="I16">
-        <v>0.01051541326306721</v>
-      </c>
-      <c r="J16">
-        <v>0.01071942217813777</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.379345</v>
-      </c>
-      <c r="O16">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P16">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q16">
-        <v>0.1495430255311111</v>
-      </c>
-      <c r="R16">
-        <v>1.34588722978</v>
-      </c>
-      <c r="S16">
-        <v>0.004667609530559657</v>
-      </c>
-      <c r="T16">
-        <v>0.005840909191172578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.023554</v>
-      </c>
-      <c r="H17">
-        <v>6.070662</v>
-      </c>
-      <c r="I17">
-        <v>0.01799235826652378</v>
-      </c>
-      <c r="J17">
-        <v>0.01834142695243139</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.09539</v>
-      </c>
-      <c r="N17">
-        <v>0.19078</v>
-      </c>
-      <c r="O17">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P17">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q17">
-        <v>0.19302681606</v>
-      </c>
-      <c r="R17">
-        <v>1.15816089636</v>
-      </c>
-      <c r="S17">
-        <v>0.006024846716156629</v>
-      </c>
-      <c r="T17">
-        <v>0.00502621057301477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2.023554</v>
-      </c>
-      <c r="H18">
-        <v>6.070662</v>
-      </c>
-      <c r="I18">
-        <v>0.01799235826652378</v>
-      </c>
-      <c r="J18">
-        <v>0.01834142695243139</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.126061</v>
-      </c>
-      <c r="O18">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P18">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q18">
-        <v>0.127545620397</v>
-      </c>
-      <c r="R18">
-        <v>0.7652737223819999</v>
-      </c>
-      <c r="S18">
-        <v>0.003981015839634242</v>
-      </c>
-      <c r="T18">
-        <v>0.003321150702614607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.023554</v>
-      </c>
-      <c r="H19">
-        <v>6.070662</v>
-      </c>
-      <c r="I19">
-        <v>0.01799235826652378</v>
-      </c>
-      <c r="J19">
-        <v>0.01834142695243139</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.379345</v>
-      </c>
-      <c r="O19">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P19">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q19">
-        <v>0.25587503071</v>
-      </c>
-      <c r="R19">
-        <v>2.30287527639</v>
-      </c>
-      <c r="S19">
-        <v>0.007986495710732908</v>
-      </c>
-      <c r="T19">
-        <v>0.009994065676802012</v>
+        <v>0.003250233698562591</v>
       </c>
     </row>
   </sheetData>
